--- a/my1stProject/chip_ps/chip_example_ps_design_arch.xlsx
+++ b/my1stProject/chip_ps/chip_example_ps_design_arch.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirti\Documents\soc_repository\my1stProject\chip_ps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anupam\Documents\SoCgit\hello-world\my1stProject\chip_ps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="4140" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="4140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -1418,12 +1418,6 @@
     <t>Reg2_F_r[15:0]</t>
   </si>
   <si>
-    <t>..\block1\block1.xlsx</t>
-  </si>
-  <si>
-    <t>..\block2\block2.xlsx</t>
-  </si>
-  <si>
     <t>Block1</t>
   </si>
   <si>
@@ -1476,6 +1470,12 @@
   </si>
   <si>
     <t>Reg1_F_r[15:0]</t>
+  </si>
+  <si>
+    <t>..\block1_ps\block1_ps.xlsx</t>
+  </si>
+  <si>
+    <t>..\block2_ps\block2_ps.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2707,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B5" s="81" t="s">
         <v>361</v>
@@ -2786,7 +2786,7 @@
         <v>362</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E5" s="81">
         <v>1</v>
@@ -2796,7 +2796,7 @@
       <c r="H5" s="81"/>
       <c r="I5" s="13"/>
       <c r="J5" s="10" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2817,7 +2817,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B7" s="81" t="s">
         <v>361</v>
@@ -2826,7 +2826,7 @@
         <v>362</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E7" s="81">
         <v>1</v>
@@ -2836,7 +2836,7 @@
       <c r="H7" s="81"/>
       <c r="I7" s="13"/>
       <c r="J7" s="10" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2970,7 +2970,7 @@
         <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C6" t="str">
         <f>Instances!A5</f>
@@ -2985,7 +2985,7 @@
         <v>359</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C7" t="str">
         <f>Instances!A7</f>
@@ -3027,7 +3027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -3092,7 +3092,7 @@
         <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C6" t="str">
         <f>Instances!A5</f>
@@ -3108,14 +3108,14 @@
         <v>359</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C7" t="str">
         <f>Instances!A5</f>
         <v>B1</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3123,14 +3123,14 @@
         <v>359</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C8" t="str">
         <f>Instances!A5</f>
         <v>B1</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3138,7 +3138,7 @@
         <v>359</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C9" t="str">
         <f>Instances!A5</f>
@@ -3183,7 +3183,7 @@
         <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C12" t="str">
         <f>Instances!A7</f>
@@ -3198,14 +3198,14 @@
         <v>359</v>
       </c>
       <c r="B13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C13" t="str">
         <f>Instances!A7</f>
         <v>B2</v>
       </c>
       <c r="D13" s="92" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,7 +3213,7 @@
         <v>359</v>
       </c>
       <c r="B14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C14" t="str">
         <f>Instances!A7</f>
@@ -3228,14 +3228,14 @@
         <v>359</v>
       </c>
       <c r="B15" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C15" t="str">
         <f>Instances!A7</f>
         <v>B2</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3288,13 +3288,13 @@
         <v>359</v>
       </c>
       <c r="B19" s="93" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D19" s="93" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3302,13 +3302,13 @@
         <v>359</v>
       </c>
       <c r="B20" s="93" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C20" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D20" s="93" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,13 +3316,13 @@
         <v>359</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D21" s="93" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3330,13 +3330,13 @@
         <v>359</v>
       </c>
       <c r="B22" s="93" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D22" s="93" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/my1stProject/chip_ps/chip_example_ps_design_arch.xlsx
+++ b/my1stProject/chip_ps/chip_example_ps_design_arch.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="400">
   <si>
     <t>Target</t>
   </si>
@@ -1476,6 +1476,9 @@
   </si>
   <si>
     <t>..\block2_ps\block2_ps.xlsx</t>
+  </si>
+  <si>
+    <t>B12</t>
   </si>
 </sst>
 </file>
@@ -2707,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,7 +2780,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B5" s="81" t="s">
         <v>361</v>
@@ -2903,7 +2906,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,7 +2977,7 @@
       </c>
       <c r="C6" t="str">
         <f>Instances!A5</f>
-        <v>B1</v>
+        <v>B12</v>
       </c>
       <c r="D6" t="s">
         <v>364</v>
@@ -3028,7 +3031,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3096,7 +3099,7 @@
       </c>
       <c r="C6" t="str">
         <f>Instances!A5</f>
-        <v>B1</v>
+        <v>B12</v>
       </c>
       <c r="D6" t="s">
         <v>367</v>
@@ -3112,7 +3115,7 @@
       </c>
       <c r="C7" t="str">
         <f>Instances!A5</f>
-        <v>B1</v>
+        <v>B12</v>
       </c>
       <c r="D7" t="s">
         <v>392</v>
@@ -3127,7 +3130,7 @@
       </c>
       <c r="C8" t="str">
         <f>Instances!A5</f>
-        <v>B1</v>
+        <v>B12</v>
       </c>
       <c r="D8" t="s">
         <v>393</v>
@@ -3142,7 +3145,7 @@
       </c>
       <c r="C9" t="str">
         <f>Instances!A5</f>
-        <v>B1</v>
+        <v>B12</v>
       </c>
       <c r="D9" t="s">
         <v>368</v>
@@ -3157,7 +3160,7 @@
       </c>
       <c r="C10" t="str">
         <f>Instances!A5</f>
-        <v>B1</v>
+        <v>B12</v>
       </c>
       <c r="D10" t="s">
         <v>369</v>
@@ -3172,7 +3175,7 @@
       </c>
       <c r="C11" t="str">
         <f>Instances!A5</f>
-        <v>B1</v>
+        <v>B12</v>
       </c>
       <c r="D11" t="s">
         <v>370</v>
